--- a/downloaded_files/EECS100_Tutorial-35271.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,24 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Retaj hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى طارق عوض مرعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Tarek Awad Ali Marei</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى عمرو أحمد يوسف الشربيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
   </x:si>
   <x:si>
     <x:t>1230202</x:t>
@@ -326,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +618,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.300625000000004" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="59.530625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -909,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.1577131944</x:v>
+        <x:v>45909.4693168634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.8314183681</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4693168634</x:v>
+        <x:v>45907.419990162</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.419990162</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.4431201736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45909.6007372338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4431201736</x:v>
+        <x:v>45907.4238201389</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.6007372338</x:v>
+        <x:v>45907.4377122338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4238201389</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4377122338</x:v>
+        <x:v>45907.6729840278</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45909.6678525463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,80 +1261,16 @@
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
     </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45907.6729840278</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.6678525463</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [0]Lab ELC. Building-0-الجيزة الرئيسي Time : Sunday(8:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [0]Lab ELC. Building-0-الجيزة الرئيسي Time : Sunday(8:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Laboratory (EECS100) Location : [0]Lab ELC. Building-0-الجيزة الرئيسي Time : Sunday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/EECS100_Tutorial-35271.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Roaa Hesham Salah Elsayed Hamoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1230034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رويدا احمد ابوالفتوح عبدالغني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rowida Ahmed Aboelfotouh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230036</x:t>
   </x:si>
   <x:si>
@@ -184,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسي رزق لمعي رزق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1220298</x:t>
@@ -308,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -859,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4206558218</x:v>
+        <x:v>45924.0066503472</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4693168634</x:v>
+        <x:v>45907.4206558218</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4209761921</x:v>
+        <x:v>45909.4693168634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.419990162</x:v>
+        <x:v>45907.4209761921</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4213496875</x:v>
+        <x:v>45907.419990162</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4213496875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4431201736</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6007372338</x:v>
+        <x:v>45907.4431201736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4238201389</x:v>
+        <x:v>45909.6007372338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4377122338</x:v>
+        <x:v>45907.4238201389</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4377122338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6729840278</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6678525463</x:v>
+        <x:v>45907.6729840278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1278,70 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45924.0376082176</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.6678525463</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35271.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35271.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسي رزق لمعي رزق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassa rizk lamey rizk</x:t>
   </x:si>
   <x:si>
     <x:t>1220298</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45924.0376082176</x:v>
+        <x:v>45909.6678525463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.6678525463</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35271.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35271.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1230328</x:t>

--- a/downloaded_files/EECS100_Tutorial-35271.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35271.xlsx
@@ -126,10 +126,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230228</x:t>
@@ -201,7 +201,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
 </x:sst>
 </file>
